--- a/CreateDB_NC/InputData/NREL_SAM/Wind/Turbines.xlsx
+++ b/CreateDB_NC/InputData/NREL_SAM/Wind/Turbines.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateBaseDeck\NREL_SAM\Wind\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateDB_NC\InputData\NREL_SAM\Wind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0E74AE-89DE-408D-ACE4-BF9659EC645D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C61E7A-894E-4BFF-9322-5C77B18E5635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LAND" sheetId="7" r:id="rId1"/>
@@ -115,7 +115,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -129,6 +129,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3594075D-3C3C-460C-9407-0C29A0243784}">
-  <dimension ref="A1:G162"/>
+  <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,7 +453,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="B2" s="1">
         <v>0.85</v>
@@ -461,7 +462,7 @@
         <v>112</v>
       </c>
       <c r="D2" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -563,728 +564,728 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E14">
+      <c r="E14" s="5">
         <v>3</v>
       </c>
-      <c r="F14">
-        <v>2.4040000000000002E-2</v>
+      <c r="F14" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E15">
+      <c r="E15" s="5">
         <v>3.25</v>
       </c>
-      <c r="F15">
-        <v>2.7883333333333336E-2</v>
+      <c r="F15" s="5">
+        <v>2.35E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E16">
+      <c r="E16" s="5">
         <v>3.5</v>
       </c>
-      <c r="F16">
-        <v>3.5576666666666666E-2</v>
+      <c r="F16" s="5">
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E17">
+      <c r="E17" s="5">
         <v>3.75</v>
       </c>
-      <c r="F17">
-        <v>4.5193333333333335E-2</v>
+      <c r="F17" s="5">
+        <v>4.3749999999999997E-2</v>
       </c>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E18">
+      <c r="E18" s="5">
         <v>4</v>
       </c>
-      <c r="F18">
-        <v>5.6730000000000003E-2</v>
+      <c r="F18" s="5">
+        <v>5.6250000000000001E-2</v>
       </c>
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E19">
+      <c r="E19" s="5">
         <v>4.25</v>
       </c>
-      <c r="F19">
-        <v>6.8269999999999997E-2</v>
+      <c r="F19" s="5">
+        <v>7.0250000000000007E-2</v>
       </c>
     </row>
     <row r="20" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E20">
+      <c r="E20" s="5">
         <v>4.5</v>
       </c>
-      <c r="F20">
-        <v>8.1729999999999997E-2</v>
+      <c r="F20" s="5">
+        <v>8.5999999999999993E-2</v>
       </c>
     </row>
     <row r="21" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E21">
+      <c r="E21" s="5">
         <v>4.75</v>
       </c>
-      <c r="F21">
-        <v>9.9040000000000003E-2</v>
+      <c r="F21" s="5">
+        <v>0.10375</v>
       </c>
     </row>
     <row r="22" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E22">
+      <c r="E22" s="5">
         <v>5</v>
       </c>
-      <c r="F22">
-        <v>0.1125</v>
+      <c r="F22" s="5">
+        <v>0.1235</v>
       </c>
     </row>
     <row r="23" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E23">
+      <c r="E23" s="5">
         <v>5.25</v>
       </c>
-      <c r="F23">
-        <v>0.12980666666666668</v>
+      <c r="F23" s="5">
+        <v>0.14524999999999999</v>
       </c>
     </row>
     <row r="24" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E24">
+      <c r="E24" s="5">
         <v>5.5</v>
       </c>
-      <c r="F24">
-        <v>0.14711666666666667</v>
+      <c r="F24" s="5">
+        <v>0.16900000000000001</v>
       </c>
     </row>
     <row r="25" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E25">
+      <c r="E25" s="5">
         <v>5.75</v>
       </c>
-      <c r="F25">
-        <v>0.16827</v>
+      <c r="F25" s="5">
+        <v>0.19525000000000001</v>
       </c>
     </row>
     <row r="26" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E26">
+      <c r="E26" s="5">
         <v>6</v>
       </c>
-      <c r="F26">
-        <v>0.18942333333333333</v>
+      <c r="F26" s="5">
+        <v>0.22375</v>
       </c>
     </row>
     <row r="27" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E27">
+      <c r="E27" s="5">
         <v>6.25</v>
       </c>
-      <c r="F27">
-        <v>0.21442333333333333</v>
+      <c r="F27" s="5">
+        <v>0.25474999999999998</v>
       </c>
     </row>
     <row r="28" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E28">
+      <c r="E28" s="5">
         <v>6.5</v>
       </c>
-      <c r="F28">
-        <v>0.24326999999999999</v>
+      <c r="F28" s="5">
+        <v>0.28825000000000001</v>
       </c>
     </row>
     <row r="29" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E29">
+      <c r="E29" s="5">
         <v>6.75</v>
       </c>
-      <c r="F29">
-        <v>0.27211666666666667</v>
+      <c r="F29" s="5">
+        <v>0.32450000000000001</v>
       </c>
     </row>
     <row r="30" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E30">
+      <c r="E30" s="5">
         <v>7</v>
       </c>
-      <c r="F30">
-        <v>0.30865333333333334</v>
+      <c r="F30" s="5">
+        <v>0.36375000000000002</v>
       </c>
     </row>
     <row r="31" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E31">
+      <c r="E31" s="5">
         <v>7.25</v>
       </c>
-      <c r="F31">
-        <v>0.35</v>
+      <c r="F31" s="5">
+        <v>0.40575</v>
       </c>
     </row>
     <row r="32" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E32">
+      <c r="E32" s="5">
         <v>7.5</v>
       </c>
-      <c r="F32">
-        <v>0.39</v>
+      <c r="F32" s="5">
+        <v>0.45050000000000001</v>
       </c>
     </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E33">
+      <c r="E33" s="5">
         <v>7.75</v>
       </c>
-      <c r="F33">
-        <v>0.43333333333333335</v>
+      <c r="F33" s="5">
+        <v>0.49875000000000003</v>
       </c>
     </row>
     <row r="34" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E34">
+      <c r="E34" s="5">
         <v>8</v>
       </c>
-      <c r="F34">
-        <v>0.47333333333333333</v>
+      <c r="F34" s="5">
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="35" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E35">
+      <c r="E35" s="5">
         <v>8.25</v>
       </c>
-      <c r="F35">
-        <v>0.51333333333333331</v>
+      <c r="F35" s="5">
+        <v>0.60450000000000004</v>
       </c>
     </row>
     <row r="36" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E36">
+      <c r="E36" s="5">
         <v>8.5</v>
       </c>
-      <c r="F36">
-        <v>0.56000000000000005</v>
+      <c r="F36" s="5">
+        <v>0.66249999999999998</v>
       </c>
     </row>
     <row r="37" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E37">
+      <c r="E37" s="5">
         <v>8.75</v>
       </c>
-      <c r="F37">
-        <v>0.60333333333333339</v>
+      <c r="F37" s="5">
+        <v>0.72399999999999998</v>
       </c>
     </row>
     <row r="38" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E38">
+      <c r="E38" s="5">
         <v>9</v>
       </c>
-      <c r="F38">
-        <v>0.65333333333333332</v>
+      <c r="F38" s="5">
+        <v>0.78900000000000003</v>
       </c>
     </row>
     <row r="39" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E39">
+      <c r="E39" s="5">
         <v>9.25</v>
       </c>
-      <c r="F39">
-        <v>0.70333333333333337</v>
+      <c r="F39" s="5">
+        <v>0.85775000000000001</v>
       </c>
     </row>
     <row r="40" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E40">
+      <c r="E40" s="5">
         <v>9.5</v>
       </c>
-      <c r="F40">
-        <v>0.75666666666666671</v>
+      <c r="F40" s="5">
+        <v>0.93049999999999999</v>
       </c>
     </row>
     <row r="41" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E41">
+      <c r="E41" s="5">
         <v>9.75</v>
       </c>
-      <c r="F41">
-        <v>0.81</v>
+      <c r="F41" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E42">
+      <c r="E42" s="5">
         <v>10</v>
       </c>
-      <c r="F42">
-        <v>0.85333333333333339</v>
+      <c r="F42" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E43">
+      <c r="E43" s="5">
         <v>10.25</v>
       </c>
-      <c r="F43">
-        <v>0.9</v>
+      <c r="F43" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E44">
+      <c r="E44" s="5">
         <v>10.5</v>
       </c>
-      <c r="F44">
-        <v>0.93666666666666665</v>
+      <c r="F44" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E45">
+      <c r="E45" s="5">
         <v>10.75</v>
       </c>
-      <c r="F45">
-        <v>0.96</v>
+      <c r="F45" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E46">
+      <c r="E46" s="5">
         <v>11</v>
       </c>
-      <c r="F46">
-        <v>0.97666666666666668</v>
+      <c r="F46" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E47">
+      <c r="E47" s="5">
         <v>11.25</v>
       </c>
-      <c r="F47">
-        <v>0.98666666666666669</v>
+      <c r="F47" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E48">
+      <c r="E48" s="5">
         <v>11.5</v>
       </c>
-      <c r="F48">
-        <v>0.99333333333333329</v>
+      <c r="F48" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E49">
+      <c r="E49" s="5">
         <v>11.75</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E50">
+      <c r="E50" s="5">
         <v>12</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E51">
+      <c r="E51" s="5">
         <v>12.25</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E52">
+      <c r="E52" s="5">
         <v>12.5</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E53">
+      <c r="E53" s="5">
         <v>12.75</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E54">
+      <c r="E54" s="5">
         <v>13</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E55">
+      <c r="E55" s="5">
         <v>13.25</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E56">
+      <c r="E56" s="5">
         <v>13.5</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E57">
+      <c r="E57" s="5">
         <v>13.75</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E58">
+      <c r="E58" s="5">
         <v>14</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E59">
+      <c r="E59" s="5">
         <v>14.25</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E60">
+      <c r="E60" s="5">
         <v>14.5</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E61">
+      <c r="E61" s="5">
         <v>14.75</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E62">
+      <c r="E62" s="5">
         <v>15</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E63">
+      <c r="E63" s="5">
         <v>15.25</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E64">
+      <c r="E64" s="5">
         <v>15.5</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E65">
+      <c r="E65" s="5">
         <v>15.75</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E66">
+      <c r="E66" s="5">
         <v>16</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E67">
+      <c r="E67" s="5">
         <v>16.25</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E68">
+      <c r="E68" s="5">
         <v>16.5</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E69">
+      <c r="E69" s="5">
         <v>16.75</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E70">
+      <c r="E70" s="5">
         <v>17</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E71">
+      <c r="E71" s="5">
         <v>17.25</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E72">
+      <c r="E72" s="5">
         <v>17.5</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E73">
+      <c r="E73" s="5">
         <v>17.75</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E74">
+      <c r="E74" s="5">
         <v>18</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E75">
+      <c r="E75" s="5">
         <v>18.25</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E76">
+      <c r="E76" s="5">
         <v>18.5</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E77">
+      <c r="E77" s="5">
         <v>18.75</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E78">
+      <c r="E78" s="5">
         <v>19</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E79">
+      <c r="E79" s="5">
         <v>19.25</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E80">
+      <c r="E80" s="5">
         <v>19.5</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E81">
+      <c r="E81" s="5">
         <v>19.75</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E82">
+      <c r="E82" s="5">
         <v>20</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E83">
+      <c r="E83" s="5">
         <v>20.25</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E84">
+      <c r="E84" s="5">
         <v>20.5</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E85">
+      <c r="E85" s="5">
         <v>20.75</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E86">
+      <c r="E86" s="5">
         <v>21</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E87">
+      <c r="E87" s="5">
         <v>21.25</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E88">
+      <c r="E88" s="5">
         <v>21.5</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E89">
+      <c r="E89" s="5">
         <v>21.75</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E90">
+      <c r="E90" s="5">
         <v>22</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E91">
+      <c r="E91" s="5">
         <v>22.25</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E92">
+      <c r="E92" s="5">
         <v>22.5</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E93">
+      <c r="E93" s="5">
         <v>22.75</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E94">
+      <c r="E94" s="5">
         <v>23</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E95">
+      <c r="E95" s="5">
         <v>23.25</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E96">
+      <c r="E96" s="5">
         <v>23.5</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E97">
+      <c r="E97" s="5">
         <v>23.75</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E98">
+      <c r="E98" s="5">
         <v>24</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E99">
+      <c r="E99" s="5">
         <v>24.25</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E100">
+      <c r="E100" s="5">
         <v>24.5</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E101">
+      <c r="E101" s="5">
         <v>24.75</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E102">
+      <c r="E102" s="5">
         <v>25</v>
       </c>
-      <c r="F102">
-        <v>1</v>
+      <c r="F102" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E103">
-        <v>25.25</v>
-      </c>
-      <c r="F103">
+      <c r="E103" s="5">
+        <v>30</v>
+      </c>
+      <c r="F103" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E104">
-        <v>25.5</v>
+        <v>30.25</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -1292,7 +1293,7 @@
     </row>
     <row r="105" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E105">
-        <v>25.75</v>
+        <v>30.5</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -1300,7 +1301,7 @@
     </row>
     <row r="106" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E106">
-        <v>26</v>
+        <v>30.75</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -1308,7 +1309,7 @@
     </row>
     <row r="107" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E107">
-        <v>26.25</v>
+        <v>31</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -1316,7 +1317,7 @@
     </row>
     <row r="108" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E108">
-        <v>26.5</v>
+        <v>31.25</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -1324,7 +1325,7 @@
     </row>
     <row r="109" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E109">
-        <v>26.75</v>
+        <v>31.5</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -1332,7 +1333,7 @@
     </row>
     <row r="110" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E110">
-        <v>27</v>
+        <v>31.75</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -1340,7 +1341,7 @@
     </row>
     <row r="111" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E111">
-        <v>27.25</v>
+        <v>32</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -1348,7 +1349,7 @@
     </row>
     <row r="112" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E112">
-        <v>27.5</v>
+        <v>32.25</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -1356,7 +1357,7 @@
     </row>
     <row r="113" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E113">
-        <v>27.75</v>
+        <v>32.5</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -1364,7 +1365,7 @@
     </row>
     <row r="114" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E114">
-        <v>28</v>
+        <v>32.75</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -1372,7 +1373,7 @@
     </row>
     <row r="115" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E115">
-        <v>28.25</v>
+        <v>33</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -1380,7 +1381,7 @@
     </row>
     <row r="116" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E116">
-        <v>28.5</v>
+        <v>33.25</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -1388,7 +1389,7 @@
     </row>
     <row r="117" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E117">
-        <v>28.75</v>
+        <v>33.5</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -1396,7 +1397,7 @@
     </row>
     <row r="118" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E118">
-        <v>29</v>
+        <v>33.75</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -1404,7 +1405,7 @@
     </row>
     <row r="119" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E119">
-        <v>29.25</v>
+        <v>34</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -1412,7 +1413,7 @@
     </row>
     <row r="120" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E120">
-        <v>29.5</v>
+        <v>34.25</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -1420,7 +1421,7 @@
     </row>
     <row r="121" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E121">
-        <v>29.75</v>
+        <v>34.5</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -1428,7 +1429,7 @@
     </row>
     <row r="122" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E122">
-        <v>30</v>
+        <v>34.75</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -1436,7 +1437,7 @@
     </row>
     <row r="123" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E123">
-        <v>30.25</v>
+        <v>35</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -1444,7 +1445,7 @@
     </row>
     <row r="124" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E124">
-        <v>30.5</v>
+        <v>35.25</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -1452,7 +1453,7 @@
     </row>
     <row r="125" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E125">
-        <v>30.75</v>
+        <v>35.5</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -1460,7 +1461,7 @@
     </row>
     <row r="126" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E126">
-        <v>31</v>
+        <v>35.75</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -1468,7 +1469,7 @@
     </row>
     <row r="127" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E127">
-        <v>31.25</v>
+        <v>36</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -1476,7 +1477,7 @@
     </row>
     <row r="128" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E128">
-        <v>31.5</v>
+        <v>36.25</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -1484,7 +1485,7 @@
     </row>
     <row r="129" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E129">
-        <v>31.75</v>
+        <v>36.5</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -1492,7 +1493,7 @@
     </row>
     <row r="130" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E130">
-        <v>32</v>
+        <v>36.75</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -1500,7 +1501,7 @@
     </row>
     <row r="131" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E131">
-        <v>32.25</v>
+        <v>37</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -1508,7 +1509,7 @@
     </row>
     <row r="132" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E132">
-        <v>32.5</v>
+        <v>37.25</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -1516,7 +1517,7 @@
     </row>
     <row r="133" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E133">
-        <v>32.75</v>
+        <v>37.5</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -1524,7 +1525,7 @@
     </row>
     <row r="134" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E134">
-        <v>33</v>
+        <v>37.75</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -1532,7 +1533,7 @@
     </row>
     <row r="135" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E135">
-        <v>33.25</v>
+        <v>38</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -1540,7 +1541,7 @@
     </row>
     <row r="136" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E136">
-        <v>33.5</v>
+        <v>38.25</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -1548,7 +1549,7 @@
     </row>
     <row r="137" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E137">
-        <v>33.75</v>
+        <v>38.5</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -1556,7 +1557,7 @@
     </row>
     <row r="138" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E138">
-        <v>34</v>
+        <v>38.75</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -1564,7 +1565,7 @@
     </row>
     <row r="139" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E139">
-        <v>34.25</v>
+        <v>39</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -1572,7 +1573,7 @@
     </row>
     <row r="140" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E140">
-        <v>34.5</v>
+        <v>39.25</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -1580,7 +1581,7 @@
     </row>
     <row r="141" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E141">
-        <v>34.75</v>
+        <v>39.5</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -1588,7 +1589,7 @@
     </row>
     <row r="142" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E142">
-        <v>35</v>
+        <v>39.75</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -1596,161 +1597,9 @@
     </row>
     <row r="143" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E143">
-        <v>35.25</v>
+        <v>40</v>
       </c>
       <c r="F143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E144">
-        <v>35.5</v>
-      </c>
-      <c r="F144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E145">
-        <v>35.75</v>
-      </c>
-      <c r="F145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E146">
-        <v>36</v>
-      </c>
-      <c r="F146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E147">
-        <v>36.25</v>
-      </c>
-      <c r="F147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E148">
-        <v>36.5</v>
-      </c>
-      <c r="F148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E149">
-        <v>36.75</v>
-      </c>
-      <c r="F149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E150">
-        <v>37</v>
-      </c>
-      <c r="F150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E151">
-        <v>37.25</v>
-      </c>
-      <c r="F151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E152">
-        <v>37.5</v>
-      </c>
-      <c r="F152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E153">
-        <v>37.75</v>
-      </c>
-      <c r="F153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E154">
-        <v>38</v>
-      </c>
-      <c r="F154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E155">
-        <v>38.25</v>
-      </c>
-      <c r="F155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E156">
-        <v>38.5</v>
-      </c>
-      <c r="F156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E157">
-        <v>38.75</v>
-      </c>
-      <c r="F157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E158">
-        <v>39</v>
-      </c>
-      <c r="F158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E159">
-        <v>39.25</v>
-      </c>
-      <c r="F159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E160">
-        <v>39.5</v>
-      </c>
-      <c r="F160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E161">
-        <v>39.75</v>
-      </c>
-      <c r="F161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E162">
-        <v>40</v>
-      </c>
-      <c r="F162">
         <v>0</v>
       </c>
     </row>
@@ -1763,8 +1612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5799702-1589-41C0-8E9E-D9F391AD9E72}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CreateDB_NC/InputData/NREL_SAM/Wind/Turbines.xlsx
+++ b/CreateDB_NC/InputData/NREL_SAM/Wind/Turbines.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateDB_NC\InputData\NREL_SAM\Wind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C61E7A-894E-4BFF-9322-5C77B18E5635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B479726-66E2-4A50-A8D7-9F377212C72F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="13035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LAND" sheetId="7" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>Hub Height</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>Turbine data from SAM + NREL ATB-22 Base model. Losses from https://www.nrel.gov/docs/fy22osti/81209.pdf</t>
+  </si>
+  <si>
+    <t>Turbine data from SAM + NREL ATB-22 Base model. Losses from https://www.nrel.gov/docs/fy22osti/81209.pdf  +  (original HB=110) adjusted to mach NREL-resource map</t>
   </si>
 </sst>
 </file>
@@ -115,7 +118,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -129,7 +132,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,7 +416,7 @@
   <dimension ref="A1:G143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,7 +455,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="B2" s="1">
         <v>0.85</v>
@@ -471,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -564,722 +566,722 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E14" s="5">
+      <c r="E14">
         <v>3</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E15" s="5">
+      <c r="E15">
         <v>3.25</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E16" s="5">
+      <c r="E16">
         <v>3.5</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E17" s="5">
+      <c r="E17">
         <v>3.75</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17">
         <v>4.3749999999999997E-2</v>
       </c>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E18" s="5">
+      <c r="E18">
         <v>4</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18">
         <v>5.6250000000000001E-2</v>
       </c>
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E19" s="5">
+      <c r="E19">
         <v>4.25</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19">
         <v>7.0250000000000007E-2</v>
       </c>
     </row>
     <row r="20" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E20" s="5">
+      <c r="E20">
         <v>4.5</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20">
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
     <row r="21" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E21" s="5">
+      <c r="E21">
         <v>4.75</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21">
         <v>0.10375</v>
       </c>
     </row>
     <row r="22" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E22" s="5">
+      <c r="E22">
         <v>5</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22">
         <v>0.1235</v>
       </c>
     </row>
     <row r="23" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E23" s="5">
+      <c r="E23">
         <v>5.25</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23">
         <v>0.14524999999999999</v>
       </c>
     </row>
     <row r="24" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E24" s="5">
+      <c r="E24">
         <v>5.5</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24">
         <v>0.16900000000000001</v>
       </c>
     </row>
     <row r="25" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E25" s="5">
+      <c r="E25">
         <v>5.75</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25">
         <v>0.19525000000000001</v>
       </c>
     </row>
     <row r="26" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E26" s="5">
+      <c r="E26">
         <v>6</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26">
         <v>0.22375</v>
       </c>
     </row>
     <row r="27" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E27" s="5">
+      <c r="E27">
         <v>6.25</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27">
         <v>0.25474999999999998</v>
       </c>
     </row>
     <row r="28" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E28" s="5">
+      <c r="E28">
         <v>6.5</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28">
         <v>0.28825000000000001</v>
       </c>
     </row>
     <row r="29" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E29" s="5">
+      <c r="E29">
         <v>6.75</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29">
         <v>0.32450000000000001</v>
       </c>
     </row>
     <row r="30" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E30" s="5">
+      <c r="E30">
         <v>7</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30">
         <v>0.36375000000000002</v>
       </c>
     </row>
     <row r="31" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E31" s="5">
+      <c r="E31">
         <v>7.25</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31">
         <v>0.40575</v>
       </c>
     </row>
     <row r="32" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E32" s="5">
+      <c r="E32">
         <v>7.5</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32">
         <v>0.45050000000000001</v>
       </c>
     </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E33" s="5">
+      <c r="E33">
         <v>7.75</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33">
         <v>0.49875000000000003</v>
       </c>
     </row>
     <row r="34" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E34" s="5">
+      <c r="E34">
         <v>8</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34">
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="35" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E35" s="5">
+      <c r="E35">
         <v>8.25</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35">
         <v>0.60450000000000004</v>
       </c>
     </row>
     <row r="36" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E36" s="5">
+      <c r="E36">
         <v>8.5</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36">
         <v>0.66249999999999998</v>
       </c>
     </row>
     <row r="37" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E37" s="5">
+      <c r="E37">
         <v>8.75</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37">
         <v>0.72399999999999998</v>
       </c>
     </row>
     <row r="38" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E38" s="5">
+      <c r="E38">
         <v>9</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38">
         <v>0.78900000000000003</v>
       </c>
     </row>
     <row r="39" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E39" s="5">
+      <c r="E39">
         <v>9.25</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39">
         <v>0.85775000000000001</v>
       </c>
     </row>
     <row r="40" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E40" s="5">
+      <c r="E40">
         <v>9.5</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40">
         <v>0.93049999999999999</v>
       </c>
     </row>
     <row r="41" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E41" s="5">
+      <c r="E41">
         <v>9.75</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E42" s="5">
+      <c r="E42">
         <v>10</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E43" s="5">
+      <c r="E43">
         <v>10.25</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E44" s="5">
+      <c r="E44">
         <v>10.5</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E45" s="5">
+      <c r="E45">
         <v>10.75</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E46" s="5">
+      <c r="E46">
         <v>11</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E47" s="5">
+      <c r="E47">
         <v>11.25</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F47">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E48" s="5">
+      <c r="E48">
         <v>11.5</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E49" s="5">
+      <c r="E49">
         <v>11.75</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F49">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E50" s="5">
+      <c r="E50">
         <v>12</v>
       </c>
-      <c r="F50" s="5">
+      <c r="F50">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E51" s="5">
+      <c r="E51">
         <v>12.25</v>
       </c>
-      <c r="F51" s="5">
+      <c r="F51">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E52" s="5">
+      <c r="E52">
         <v>12.5</v>
       </c>
-      <c r="F52" s="5">
+      <c r="F52">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E53" s="5">
+      <c r="E53">
         <v>12.75</v>
       </c>
-      <c r="F53" s="5">
+      <c r="F53">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E54" s="5">
+      <c r="E54">
         <v>13</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F54">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E55" s="5">
+      <c r="E55">
         <v>13.25</v>
       </c>
-      <c r="F55" s="5">
+      <c r="F55">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E56" s="5">
+      <c r="E56">
         <v>13.5</v>
       </c>
-      <c r="F56" s="5">
+      <c r="F56">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E57" s="5">
+      <c r="E57">
         <v>13.75</v>
       </c>
-      <c r="F57" s="5">
+      <c r="F57">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E58" s="5">
+      <c r="E58">
         <v>14</v>
       </c>
-      <c r="F58" s="5">
+      <c r="F58">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E59" s="5">
+      <c r="E59">
         <v>14.25</v>
       </c>
-      <c r="F59" s="5">
+      <c r="F59">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E60" s="5">
+      <c r="E60">
         <v>14.5</v>
       </c>
-      <c r="F60" s="5">
+      <c r="F60">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E61" s="5">
+      <c r="E61">
         <v>14.75</v>
       </c>
-      <c r="F61" s="5">
+      <c r="F61">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E62" s="5">
+      <c r="E62">
         <v>15</v>
       </c>
-      <c r="F62" s="5">
+      <c r="F62">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E63" s="5">
+      <c r="E63">
         <v>15.25</v>
       </c>
-      <c r="F63" s="5">
+      <c r="F63">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E64" s="5">
+      <c r="E64">
         <v>15.5</v>
       </c>
-      <c r="F64" s="5">
+      <c r="F64">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E65" s="5">
+      <c r="E65">
         <v>15.75</v>
       </c>
-      <c r="F65" s="5">
+      <c r="F65">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E66" s="5">
+      <c r="E66">
         <v>16</v>
       </c>
-      <c r="F66" s="5">
+      <c r="F66">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E67" s="5">
+      <c r="E67">
         <v>16.25</v>
       </c>
-      <c r="F67" s="5">
+      <c r="F67">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E68" s="5">
+      <c r="E68">
         <v>16.5</v>
       </c>
-      <c r="F68" s="5">
+      <c r="F68">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E69" s="5">
+      <c r="E69">
         <v>16.75</v>
       </c>
-      <c r="F69" s="5">
+      <c r="F69">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E70" s="5">
+      <c r="E70">
         <v>17</v>
       </c>
-      <c r="F70" s="5">
+      <c r="F70">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E71" s="5">
+      <c r="E71">
         <v>17.25</v>
       </c>
-      <c r="F71" s="5">
+      <c r="F71">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E72" s="5">
+      <c r="E72">
         <v>17.5</v>
       </c>
-      <c r="F72" s="5">
+      <c r="F72">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E73" s="5">
+      <c r="E73">
         <v>17.75</v>
       </c>
-      <c r="F73" s="5">
+      <c r="F73">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E74" s="5">
+      <c r="E74">
         <v>18</v>
       </c>
-      <c r="F74" s="5">
+      <c r="F74">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E75" s="5">
+      <c r="E75">
         <v>18.25</v>
       </c>
-      <c r="F75" s="5">
+      <c r="F75">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E76" s="5">
+      <c r="E76">
         <v>18.5</v>
       </c>
-      <c r="F76" s="5">
+      <c r="F76">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E77" s="5">
+      <c r="E77">
         <v>18.75</v>
       </c>
-      <c r="F77" s="5">
+      <c r="F77">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E78" s="5">
+      <c r="E78">
         <v>19</v>
       </c>
-      <c r="F78" s="5">
+      <c r="F78">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E79" s="5">
+      <c r="E79">
         <v>19.25</v>
       </c>
-      <c r="F79" s="5">
+      <c r="F79">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E80" s="5">
+      <c r="E80">
         <v>19.5</v>
       </c>
-      <c r="F80" s="5">
+      <c r="F80">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E81" s="5">
+      <c r="E81">
         <v>19.75</v>
       </c>
-      <c r="F81" s="5">
+      <c r="F81">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E82" s="5">
+      <c r="E82">
         <v>20</v>
       </c>
-      <c r="F82" s="5">
+      <c r="F82">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E83" s="5">
+      <c r="E83">
         <v>20.25</v>
       </c>
-      <c r="F83" s="5">
+      <c r="F83">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E84" s="5">
+      <c r="E84">
         <v>20.5</v>
       </c>
-      <c r="F84" s="5">
+      <c r="F84">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E85" s="5">
+      <c r="E85">
         <v>20.75</v>
       </c>
-      <c r="F85" s="5">
+      <c r="F85">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E86" s="5">
+      <c r="E86">
         <v>21</v>
       </c>
-      <c r="F86" s="5">
+      <c r="F86">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E87" s="5">
+      <c r="E87">
         <v>21.25</v>
       </c>
-      <c r="F87" s="5">
+      <c r="F87">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E88" s="5">
+      <c r="E88">
         <v>21.5</v>
       </c>
-      <c r="F88" s="5">
+      <c r="F88">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E89" s="5">
+      <c r="E89">
         <v>21.75</v>
       </c>
-      <c r="F89" s="5">
+      <c r="F89">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E90" s="5">
+      <c r="E90">
         <v>22</v>
       </c>
-      <c r="F90" s="5">
+      <c r="F90">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E91" s="5">
+      <c r="E91">
         <v>22.25</v>
       </c>
-      <c r="F91" s="5">
+      <c r="F91">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E92" s="5">
+      <c r="E92">
         <v>22.5</v>
       </c>
-      <c r="F92" s="5">
+      <c r="F92">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E93" s="5">
+      <c r="E93">
         <v>22.75</v>
       </c>
-      <c r="F93" s="5">
+      <c r="F93">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E94" s="5">
+      <c r="E94">
         <v>23</v>
       </c>
-      <c r="F94" s="5">
+      <c r="F94">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E95" s="5">
+      <c r="E95">
         <v>23.25</v>
       </c>
-      <c r="F95" s="5">
+      <c r="F95">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E96" s="5">
+      <c r="E96">
         <v>23.5</v>
       </c>
-      <c r="F96" s="5">
+      <c r="F96">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E97" s="5">
+      <c r="E97">
         <v>23.75</v>
       </c>
-      <c r="F97" s="5">
+      <c r="F97">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E98" s="5">
+      <c r="E98">
         <v>24</v>
       </c>
-      <c r="F98" s="5">
+      <c r="F98">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E99" s="5">
+      <c r="E99">
         <v>24.25</v>
       </c>
-      <c r="F99" s="5">
+      <c r="F99">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E100" s="5">
+      <c r="E100">
         <v>24.5</v>
       </c>
-      <c r="F100" s="5">
+      <c r="F100">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E101" s="5">
+      <c r="E101">
         <v>24.75</v>
       </c>
-      <c r="F101" s="5">
+      <c r="F101">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E102" s="5">
+      <c r="E102">
         <v>25</v>
       </c>
-      <c r="F102" s="5">
+      <c r="F102">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E103" s="5">
+      <c r="E103">
         <v>30</v>
       </c>
-      <c r="F103" s="5">
+      <c r="F103">
         <v>0</v>
       </c>
     </row>
@@ -1613,7 +1615,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:K29"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
